--- a/sp-medical-group/1.bd/exemplo-spmedgroup.xlsx
+++ b/sp-medical-group/1.bd/exemplo-spmedgroup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helena.strada\Documents\senai\senai-dev-1s2019\sp-medical-group\1.bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\senai\senai-dev-1s2019\sp-medical-group\1.bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317AAEA6-D05C-49E7-B6F8-D7AA0A6CBA73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E68B51-C55D-4C04-BE87-5E02601006D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{0549CD0E-3E1E-483E-AEFD-F2319DEB4A2D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>usuarios</t>
   </si>
@@ -256,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,61 +267,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8B921E-8098-4453-8396-44D115CBC406}">
-  <dimension ref="B2:N21"/>
+  <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="151" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,27 +648,27 @@
     <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -691,150 +685,154 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="20" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="H6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="M6" s="18" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="N6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="J12" s="10" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="J12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -847,8 +845,9 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -861,68 +860,69 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="J12:N12"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="M6:N6"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
